--- a/src/3t/assets/BEAM_2.xlsx
+++ b/src/3t/assets/BEAM_2.xlsx
@@ -235,8 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +252,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +268,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +302,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,30 +326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,40 +350,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,11 +365,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -412,31 +412,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,151 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,54 +617,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +646,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -703,6 +679,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:U1"/>
+      <selection activeCell="K12" sqref="K12:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1796,9 +1796,7 @@
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="11">
         <v>6.66</v>
       </c>
@@ -1848,9 +1846,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="6">
         <v>6.75</v>
       </c>
@@ -1900,9 +1896,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="6">
         <v>16.88</v>
       </c>
@@ -1952,9 +1946,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="6">
         <v>19.87</v>
       </c>
@@ -2004,9 +1996,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="6">
         <v>5.26</v>
       </c>
@@ -2108,9 +2098,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6">
         <v>43.1</v>
       </c>
